--- a/2012-2020_population.xlsx
+++ b/2012-2020_population.xlsx
@@ -169,9 +169,6 @@
     <t>Amnat Charoen</t>
   </si>
   <si>
-    <t>Bueng Kan</t>
-  </si>
-  <si>
     <t>Nong Bua Lam Phu</t>
   </si>
   <si>
@@ -248,6 +245,9 @@
   </si>
   <si>
     <t>Reporting_areas</t>
+  </si>
+  <si>
+    <t>Bungkan</t>
   </si>
 </sst>
 </file>
@@ -655,7 +655,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J79"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83984375" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
@@ -667,7 +669,7 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B1" s="2">
         <v>2012</v>
@@ -795,7 +797,7 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="3" t="s">
-        <v>51</v>
+        <v>77</v>
       </c>
       <c r="B5" s="4">
         <v>410124</v>
@@ -1083,7 +1085,7 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B14" s="4">
         <v>493746</v>
@@ -1115,7 +1117,7 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B15" s="4">
         <v>983370</v>
@@ -1211,7 +1213,7 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B18" s="4">
         <v>1770441</v>
@@ -1243,7 +1245,7 @@
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B19" s="4">
         <v>441503</v>
@@ -1339,7 +1341,7 @@
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B22" s="4">
         <v>627354</v>
@@ -1435,7 +1437,7 @@
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B25" s="4">
         <v>942442</v>
@@ -1467,7 +1469,7 @@
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B26" s="4">
         <v>341725</v>
@@ -1563,7 +1565,7 @@
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B29" s="4">
         <v>706559</v>
@@ -1659,7 +1661,7 @@
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B32" s="4">
         <v>1530479</v>
@@ -1723,7 +1725,7 @@
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B34" s="4">
         <v>752384</v>
@@ -1755,7 +1757,7 @@
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B35" s="4">
         <v>503811</v>
@@ -1787,7 +1789,7 @@
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B36" s="4">
         <v>511155</v>
@@ -1883,7 +1885,7 @@
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B39" s="4">
         <v>667550</v>
@@ -1915,7 +1917,7 @@
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B40" s="4">
         <v>256212</v>
@@ -1947,7 +1949,7 @@
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B41" s="4">
         <v>512777</v>
@@ -2203,7 +2205,7 @@
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B49" s="4">
         <v>357376</v>
@@ -2299,7 +2301,7 @@
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B52" s="4">
         <v>183248</v>
@@ -2395,7 +2397,7 @@
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B55" s="4">
         <v>1306814</v>
@@ -2459,7 +2461,7 @@
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B57" s="4">
         <v>1126263</v>
@@ -2619,7 +2621,7 @@
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B62" s="4">
         <v>303674</v>
@@ -2715,7 +2717,7 @@
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B65" s="4">
         <v>1372792</v>
@@ -2811,7 +2813,7 @@
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B68" s="4">
         <v>1017676</v>
@@ -2907,7 +2909,7 @@
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B71" s="4">
         <v>629314</v>
@@ -3003,7 +3005,7 @@
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A74" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B74" s="4">
         <v>1552703</v>
@@ -3099,7 +3101,7 @@
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A77" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B77" s="4">
         <v>497290</v>

--- a/2012-2020_population.xlsx
+++ b/2012-2020_population.xlsx
@@ -73,9 +73,6 @@
     <t>Ratcha Buri</t>
   </si>
   <si>
-    <t>Kanchana Buri</t>
-  </si>
-  <si>
     <t>Suphanburi</t>
   </si>
   <si>
@@ -248,6 +245,9 @@
   </si>
   <si>
     <t>Bungkan</t>
+  </si>
+  <si>
+    <t>Kanchanaburi</t>
   </si>
 </sst>
 </file>
@@ -656,7 +656,7 @@
   <dimension ref="A1:J79"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83984375" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -669,7 +669,7 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B1" s="2">
         <v>2012</v>
@@ -701,7 +701,7 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B2" s="4">
         <v>372868</v>
@@ -797,7 +797,7 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B5" s="4">
         <v>410124</v>
@@ -829,7 +829,7 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B6" s="4">
         <v>1562912</v>
@@ -925,7 +925,7 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B9" s="4">
         <v>1130228</v>
@@ -989,7 +989,7 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B11" s="4">
         <v>1650893</v>
@@ -1021,7 +1021,7 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B12" s="4">
         <v>1199539</v>
@@ -1085,7 +1085,7 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B14" s="4">
         <v>493746</v>
@@ -1117,7 +1117,7 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B15" s="4">
         <v>983370</v>
@@ -1149,7 +1149,7 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B16" s="4">
         <v>726782</v>
@@ -1181,7 +1181,7 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="3" t="s">
-        <v>19</v>
+        <v>77</v>
       </c>
       <c r="B17" s="4">
         <v>838591</v>
@@ -1213,7 +1213,7 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B18" s="4">
         <v>1770441</v>
@@ -1245,7 +1245,7 @@
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B19" s="4">
         <v>441503</v>
@@ -1277,7 +1277,7 @@
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B20" s="4">
         <v>757173</v>
@@ -1309,7 +1309,7 @@
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B21" s="4">
         <v>404313</v>
@@ -1341,7 +1341,7 @@
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B22" s="4">
         <v>627354</v>
@@ -1405,7 +1405,7 @@
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B24" s="4">
         <v>244202</v>
@@ -1437,7 +1437,7 @@
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B25" s="4">
         <v>942442</v>
@@ -1469,7 +1469,7 @@
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B26" s="4">
         <v>341725</v>
@@ -1533,7 +1533,7 @@
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B28" s="4">
         <v>870340</v>
@@ -1565,7 +1565,7 @@
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B29" s="4">
         <v>706559</v>
@@ -1597,7 +1597,7 @@
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B30" s="4">
         <v>2593246</v>
@@ -1629,7 +1629,7 @@
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B31" s="4">
         <v>1072516</v>
@@ -1661,7 +1661,7 @@
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B32" s="4">
         <v>1530479</v>
@@ -1693,7 +1693,7 @@
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B33" s="4">
         <v>477142</v>
@@ -1725,7 +1725,7 @@
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B34" s="4">
         <v>752384</v>
@@ -1757,7 +1757,7 @@
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B35" s="4">
         <v>503811</v>
@@ -1789,7 +1789,7 @@
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B36" s="4">
         <v>511155</v>
@@ -1885,7 +1885,7 @@
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B39" s="4">
         <v>667550</v>
@@ -1917,7 +1917,7 @@
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B40" s="4">
         <v>256212</v>
@@ -1949,7 +1949,7 @@
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B41" s="4">
         <v>512777</v>
@@ -1981,7 +1981,7 @@
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B42" s="4">
         <v>487296</v>
@@ -2013,7 +2013,7 @@
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B43" s="4">
         <v>467476</v>
@@ -2045,7 +2045,7 @@
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B44" s="4">
         <v>992255</v>
@@ -2077,7 +2077,7 @@
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B45" s="4">
         <v>549541</v>
@@ -2109,7 +2109,7 @@
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B46" s="4">
         <v>852864</v>
@@ -2173,7 +2173,7 @@
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B48" s="4">
         <v>458178</v>
@@ -2205,7 +2205,7 @@
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B49" s="4">
         <v>357376</v>
@@ -2269,7 +2269,7 @@
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B51" s="4">
         <v>514809</v>
@@ -2301,7 +2301,7 @@
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B52" s="4">
         <v>183248</v>
@@ -2397,7 +2397,7 @@
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B55" s="4">
         <v>1306814</v>
@@ -2461,7 +2461,7 @@
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B57" s="4">
         <v>1126263</v>
@@ -2525,7 +2525,7 @@
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B59" s="4">
         <v>503956</v>
@@ -2557,7 +2557,7 @@
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B60" s="4">
         <v>194064</v>
@@ -2621,7 +2621,7 @@
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B62" s="4">
         <v>303674</v>
@@ -2653,7 +2653,7 @@
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B63" s="4">
         <v>1455287</v>
@@ -2717,7 +2717,7 @@
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B65" s="4">
         <v>1372792</v>
@@ -2749,7 +2749,7 @@
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B66" s="4">
         <v>602053</v>
@@ -2781,7 +2781,7 @@
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B67" s="4">
         <v>846181</v>
@@ -2813,7 +2813,7 @@
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B68" s="4">
         <v>1017676</v>
@@ -2845,7 +2845,7 @@
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B69" s="4">
         <v>1383338</v>
@@ -2877,7 +2877,7 @@
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B70" s="4">
         <v>528531</v>
@@ -2909,7 +2909,7 @@
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B71" s="4">
         <v>629314</v>
@@ -2973,7 +2973,7 @@
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A73" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B73" s="4">
         <v>1821489</v>
@@ -3005,7 +3005,7 @@
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A74" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B74" s="4">
         <v>1552703</v>
@@ -3037,7 +3037,7 @@
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A75" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B75" s="4">
         <v>328492</v>
@@ -3069,7 +3069,7 @@
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A76" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B76" s="4">
         <v>461167</v>
@@ -3101,7 +3101,7 @@
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A77" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B77" s="4">
         <v>497290</v>
@@ -3133,7 +3133,7 @@
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A78" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B78" s="6">
         <v>539560</v>

--- a/2012-2020_population.xlsx
+++ b/2012-2020_population.xlsx
@@ -28,9 +28,6 @@
     <t>Pathum Thani</t>
   </si>
   <si>
-    <t>Phra Nakhon Si Ayutthaya</t>
-  </si>
-  <si>
     <t>Ang Thong</t>
   </si>
   <si>
@@ -248,6 +245,9 @@
   </si>
   <si>
     <t>Kanchanaburi</t>
+  </si>
+  <si>
+    <t>P. Nakhon S. Ayutthaya</t>
   </si>
 </sst>
 </file>
@@ -655,8 +655,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J79"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="A47" sqref="A47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83984375" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -669,7 +669,7 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B1" s="2">
         <v>2012</v>
@@ -701,7 +701,7 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B2" s="4">
         <v>372868</v>
@@ -733,7 +733,7 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B3" s="4">
         <v>283972</v>
@@ -797,7 +797,7 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B5" s="4">
         <v>410124</v>
@@ -829,7 +829,7 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B6" s="4">
         <v>1562912</v>
@@ -861,7 +861,7 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B7" s="4">
         <v>682545</v>
@@ -893,7 +893,7 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B8" s="4">
         <v>333214</v>
@@ -925,7 +925,7 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B9" s="4">
         <v>1130228</v>
@@ -957,7 +957,7 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B10" s="4">
         <v>519333</v>
@@ -989,7 +989,7 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B11" s="4">
         <v>1650893</v>
@@ -1021,7 +1021,7 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B12" s="4">
         <v>1199539</v>
@@ -1053,7 +1053,7 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B13" s="4">
         <v>1351329</v>
@@ -1085,7 +1085,7 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B14" s="4">
         <v>493746</v>
@@ -1117,7 +1117,7 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B15" s="4">
         <v>983370</v>
@@ -1149,7 +1149,7 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B16" s="4">
         <v>726782</v>
@@ -1181,7 +1181,7 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B17" s="4">
         <v>838591</v>
@@ -1213,7 +1213,7 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B18" s="4">
         <v>1770441</v>
@@ -1245,7 +1245,7 @@
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B19" s="4">
         <v>441503</v>
@@ -1277,7 +1277,7 @@
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B20" s="4">
         <v>757173</v>
@@ -1309,7 +1309,7 @@
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B21" s="4">
         <v>404313</v>
@@ -1341,7 +1341,7 @@
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B22" s="4">
         <v>627354</v>
@@ -1373,7 +1373,7 @@
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B23" s="4">
         <v>757093</v>
@@ -1405,7 +1405,7 @@
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B24" s="4">
         <v>244202</v>
@@ -1437,7 +1437,7 @@
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B25" s="4">
         <v>942442</v>
@@ -1469,7 +1469,7 @@
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B26" s="4">
         <v>341725</v>
@@ -1501,7 +1501,7 @@
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B27" s="4">
         <v>254502</v>
@@ -1533,7 +1533,7 @@
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B28" s="4">
         <v>870340</v>
@@ -1565,7 +1565,7 @@
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B29" s="4">
         <v>706559</v>
@@ -1597,7 +1597,7 @@
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B30" s="4">
         <v>2593246</v>
@@ -1629,7 +1629,7 @@
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B31" s="4">
         <v>1072516</v>
@@ -1661,7 +1661,7 @@
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B32" s="4">
         <v>1530479</v>
@@ -1693,7 +1693,7 @@
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B33" s="4">
         <v>477142</v>
@@ -1725,7 +1725,7 @@
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B34" s="4">
         <v>752384</v>
@@ -1757,7 +1757,7 @@
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B35" s="4">
         <v>503811</v>
@@ -1789,7 +1789,7 @@
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B36" s="4">
         <v>511155</v>
@@ -1885,7 +1885,7 @@
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B39" s="4">
         <v>667550</v>
@@ -1917,7 +1917,7 @@
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B40" s="4">
         <v>256212</v>
@@ -1949,7 +1949,7 @@
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B41" s="4">
         <v>512777</v>
@@ -1981,7 +1981,7 @@
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B42" s="4">
         <v>487296</v>
@@ -2013,7 +2013,7 @@
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B43" s="4">
         <v>467476</v>
@@ -2045,7 +2045,7 @@
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B44" s="4">
         <v>992255</v>
@@ -2077,7 +2077,7 @@
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B45" s="4">
         <v>549541</v>
@@ -2109,7 +2109,7 @@
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B46" s="4">
         <v>852864</v>
@@ -2141,7 +2141,7 @@
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="3" t="s">
-        <v>4</v>
+        <v>77</v>
       </c>
       <c r="B47" s="4">
         <v>790581</v>
@@ -2173,7 +2173,7 @@
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B48" s="4">
         <v>458178</v>
@@ -2205,7 +2205,7 @@
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B49" s="4">
         <v>357376</v>
@@ -2237,7 +2237,7 @@
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B50" s="4">
         <v>471711</v>
@@ -2269,7 +2269,7 @@
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B51" s="4">
         <v>514809</v>
@@ -2301,7 +2301,7 @@
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B52" s="4">
         <v>183248</v>
@@ -2333,7 +2333,7 @@
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B53" s="4">
         <v>844658</v>
@@ -2365,7 +2365,7 @@
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B54" s="4">
         <v>643506</v>
@@ -2397,7 +2397,7 @@
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B55" s="4">
         <v>1306814</v>
@@ -2429,7 +2429,7 @@
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B56" s="4">
         <v>546969</v>
@@ -2461,7 +2461,7 @@
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B57" s="4">
         <v>1126263</v>
@@ -2525,7 +2525,7 @@
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B59" s="4">
         <v>503956</v>
@@ -2557,7 +2557,7 @@
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B60" s="4">
         <v>194064</v>
@@ -2589,7 +2589,7 @@
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B61" s="4">
         <v>623071</v>
@@ -2621,7 +2621,7 @@
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B62" s="4">
         <v>303674</v>
@@ -2653,7 +2653,7 @@
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B63" s="4">
         <v>1455287</v>
@@ -2685,7 +2685,7 @@
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B64" s="4">
         <v>213402</v>
@@ -2717,7 +2717,7 @@
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B65" s="4">
         <v>1372792</v>
@@ -2749,7 +2749,7 @@
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B66" s="4">
         <v>602053</v>
@@ -2781,7 +2781,7 @@
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B67" s="4">
         <v>846181</v>
@@ -2813,7 +2813,7 @@
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B68" s="4">
         <v>1017676</v>
@@ -2845,7 +2845,7 @@
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B69" s="4">
         <v>1383338</v>
@@ -2877,7 +2877,7 @@
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B70" s="4">
         <v>528531</v>
@@ -2909,7 +2909,7 @@
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B71" s="4">
         <v>629314</v>
@@ -2941,7 +2941,7 @@
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B72" s="4">
         <v>222434</v>
@@ -2973,7 +2973,7 @@
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A73" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B73" s="4">
         <v>1821489</v>
@@ -3005,7 +3005,7 @@
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A74" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B74" s="4">
         <v>1552703</v>
@@ -3037,7 +3037,7 @@
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A75" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B75" s="4">
         <v>328492</v>
@@ -3069,7 +3069,7 @@
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A76" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B76" s="4">
         <v>461167</v>
@@ -3101,7 +3101,7 @@
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A77" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B77" s="4">
         <v>497290</v>
@@ -3133,7 +3133,7 @@
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A78" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B78" s="6">
         <v>539560</v>

--- a/2012-2020_population.xlsx
+++ b/2012-2020_population.xlsx
@@ -67,9 +67,6 @@
     <t>Sa Kaeo</t>
   </si>
   <si>
-    <t>Ratcha Buri</t>
-  </si>
-  <si>
     <t>Suphanburi</t>
   </si>
   <si>
@@ -82,9 +79,6 @@
     <t>Samut Songkhram</t>
   </si>
   <si>
-    <t>Phetcha Buri</t>
-  </si>
-  <si>
     <t>Prachuap Khiri Khan</t>
   </si>
   <si>
@@ -247,7 +241,13 @@
     <t>Kanchanaburi</t>
   </si>
   <si>
-    <t>P. Nakhon S. Ayutthaya</t>
+    <t>P.Nakhon S.Ayutthaya</t>
+  </si>
+  <si>
+    <t>Phetchaburi</t>
+  </si>
+  <si>
+    <t>Ratchaburi</t>
   </si>
 </sst>
 </file>
@@ -655,8 +655,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J79"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="A47" sqref="A47"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83984375" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -669,7 +669,7 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B1" s="2">
         <v>2012</v>
@@ -701,7 +701,7 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B2" s="4">
         <v>372868</v>
@@ -797,7 +797,7 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B5" s="4">
         <v>410124</v>
@@ -829,7 +829,7 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B6" s="4">
         <v>1562912</v>
@@ -925,7 +925,7 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B9" s="4">
         <v>1130228</v>
@@ -989,7 +989,7 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B11" s="4">
         <v>1650893</v>
@@ -1021,7 +1021,7 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B12" s="4">
         <v>1199539</v>
@@ -1085,7 +1085,7 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B14" s="4">
         <v>493746</v>
@@ -1117,7 +1117,7 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B15" s="4">
         <v>983370</v>
@@ -1149,7 +1149,7 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B16" s="4">
         <v>726782</v>
@@ -1181,7 +1181,7 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B17" s="4">
         <v>838591</v>
@@ -1213,7 +1213,7 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B18" s="4">
         <v>1770441</v>
@@ -1245,7 +1245,7 @@
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B19" s="4">
         <v>441503</v>
@@ -1277,7 +1277,7 @@
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B20" s="4">
         <v>757173</v>
@@ -1309,7 +1309,7 @@
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B21" s="4">
         <v>404313</v>
@@ -1341,7 +1341,7 @@
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B22" s="4">
         <v>627354</v>
@@ -1405,7 +1405,7 @@
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B24" s="4">
         <v>244202</v>
@@ -1437,7 +1437,7 @@
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B25" s="4">
         <v>942442</v>
@@ -1469,7 +1469,7 @@
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B26" s="4">
         <v>341725</v>
@@ -1533,7 +1533,7 @@
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B28" s="4">
         <v>870340</v>
@@ -1565,7 +1565,7 @@
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B29" s="4">
         <v>706559</v>
@@ -1597,7 +1597,7 @@
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B30" s="4">
         <v>2593246</v>
@@ -1629,7 +1629,7 @@
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B31" s="4">
         <v>1072516</v>
@@ -1661,7 +1661,7 @@
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B32" s="4">
         <v>1530479</v>
@@ -1693,7 +1693,7 @@
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B33" s="4">
         <v>477142</v>
@@ -1725,7 +1725,7 @@
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B34" s="4">
         <v>752384</v>
@@ -1757,7 +1757,7 @@
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B35" s="4">
         <v>503811</v>
@@ -1789,7 +1789,7 @@
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B36" s="4">
         <v>511155</v>
@@ -1853,199 +1853,199 @@
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="3" t="s">
-        <v>3</v>
+        <v>75</v>
       </c>
       <c r="B38" s="4">
-        <v>1022367</v>
+        <v>790581</v>
       </c>
       <c r="C38" s="4">
-        <v>1043498</v>
+        <v>795740</v>
       </c>
       <c r="D38" s="4">
-        <v>1063608</v>
+        <v>800785</v>
       </c>
       <c r="E38" s="4">
-        <v>1081026</v>
+        <v>805124</v>
       </c>
       <c r="F38" s="4">
-        <v>1096050</v>
+        <v>807606</v>
       </c>
       <c r="G38" s="4">
-        <v>1112513</v>
+        <v>810232</v>
       </c>
       <c r="H38" s="4">
-        <v>1129006</v>
+        <v>813622</v>
       </c>
       <c r="I38" s="4">
-        <v>1145680</v>
+        <v>816709</v>
       </c>
       <c r="J38" s="4">
-        <v>1160624</v>
+        <v>817527</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="3" t="s">
-        <v>71</v>
+        <v>3</v>
       </c>
       <c r="B39" s="4">
-        <v>667550</v>
+        <v>1022367</v>
       </c>
       <c r="C39" s="4">
-        <v>675227</v>
+        <v>1043498</v>
       </c>
       <c r="D39" s="4">
-        <v>682512</v>
+        <v>1063608</v>
       </c>
       <c r="E39" s="4">
-        <v>689414</v>
+        <v>1081026</v>
       </c>
       <c r="F39" s="4">
-        <v>696068</v>
+        <v>1096050</v>
       </c>
       <c r="G39" s="4">
-        <v>703847</v>
+        <v>1112513</v>
       </c>
       <c r="H39" s="4">
-        <v>712310</v>
+        <v>1129006</v>
       </c>
       <c r="I39" s="4">
-        <v>719935</v>
+        <v>1145680</v>
       </c>
       <c r="J39" s="4">
-        <v>723933</v>
+        <v>1160624</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="3" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="B40" s="4">
-        <v>256212</v>
+        <v>667550</v>
       </c>
       <c r="C40" s="4">
-        <v>258437</v>
+        <v>675227</v>
       </c>
       <c r="D40" s="4">
-        <v>260395</v>
+        <v>682512</v>
       </c>
       <c r="E40" s="4">
-        <v>261267</v>
+        <v>689414</v>
       </c>
       <c r="F40" s="4">
-        <v>261669</v>
+        <v>696068</v>
       </c>
       <c r="G40" s="4">
-        <v>262920</v>
+        <v>703847</v>
       </c>
       <c r="H40" s="4">
-        <v>263919</v>
+        <v>712310</v>
       </c>
       <c r="I40" s="4">
-        <v>264433</v>
+        <v>719935</v>
       </c>
       <c r="J40" s="4">
-        <v>264411</v>
+        <v>723933</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="3" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="B41" s="4">
-        <v>512777</v>
+        <v>256212</v>
       </c>
       <c r="C41" s="4">
-        <v>516257</v>
+        <v>258437</v>
       </c>
       <c r="D41" s="4">
-        <v>519220</v>
+        <v>260395</v>
       </c>
       <c r="E41" s="4">
-        <v>521420</v>
+        <v>261267</v>
       </c>
       <c r="F41" s="4">
-        <v>522912</v>
+        <v>261669</v>
       </c>
       <c r="G41" s="4">
-        <v>523967</v>
+        <v>262920</v>
       </c>
       <c r="H41" s="4">
-        <v>524618</v>
+        <v>263919</v>
       </c>
       <c r="I41" s="4">
-        <v>524614</v>
+        <v>264433</v>
       </c>
       <c r="J41" s="4">
-        <v>523634</v>
+        <v>264411</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="3" t="s">
-        <v>30</v>
+        <v>68</v>
       </c>
       <c r="B42" s="4">
-        <v>487296</v>
+        <v>512777</v>
       </c>
       <c r="C42" s="4">
-        <v>487433</v>
+        <v>516257</v>
       </c>
       <c r="D42" s="4">
-        <v>485599</v>
+        <v>519220</v>
       </c>
       <c r="E42" s="4">
-        <v>482574</v>
+        <v>521420</v>
       </c>
       <c r="F42" s="4">
-        <v>478883</v>
+        <v>522912</v>
       </c>
       <c r="G42" s="4">
-        <v>475991</v>
+        <v>523967</v>
       </c>
       <c r="H42" s="4">
-        <v>473909</v>
+        <v>524618</v>
       </c>
       <c r="I42" s="4">
-        <v>471403</v>
+        <v>524614</v>
       </c>
       <c r="J42" s="4">
-        <v>467411</v>
+        <v>523634</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="3" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="B43" s="4">
-        <v>467476</v>
+        <v>487296</v>
       </c>
       <c r="C43" s="4">
-        <v>469981</v>
+        <v>487433</v>
       </c>
       <c r="D43" s="4">
-        <v>472639</v>
+        <v>485599</v>
       </c>
       <c r="E43" s="4">
-        <v>474676</v>
+        <v>482574</v>
       </c>
       <c r="F43" s="4">
-        <v>476070</v>
+        <v>478883</v>
       </c>
       <c r="G43" s="4">
-        <v>477691</v>
+        <v>475991</v>
       </c>
       <c r="H43" s="4">
-        <v>479280</v>
+        <v>473909</v>
       </c>
       <c r="I43" s="4">
-        <v>480603</v>
+        <v>471403</v>
       </c>
       <c r="J43" s="4">
-        <v>479561</v>
+        <v>467411</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B44" s="4">
         <v>992255</v>
@@ -2077,103 +2077,103 @@
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="3" t="s">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="B45" s="4">
-        <v>549541</v>
+        <v>467476</v>
       </c>
       <c r="C45" s="4">
-        <v>549126</v>
+        <v>469981</v>
       </c>
       <c r="D45" s="4">
-        <v>548199</v>
+        <v>472639</v>
       </c>
       <c r="E45" s="4">
-        <v>546486</v>
+        <v>474676</v>
       </c>
       <c r="F45" s="4">
-        <v>544183</v>
+        <v>476070</v>
       </c>
       <c r="G45" s="4">
-        <v>542110</v>
+        <v>477691</v>
       </c>
       <c r="H45" s="4">
-        <v>540019</v>
+        <v>479280</v>
       </c>
       <c r="I45" s="4">
-        <v>537221</v>
+        <v>480603</v>
       </c>
       <c r="J45" s="4">
-        <v>533688</v>
+        <v>479561</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B46" s="4">
-        <v>852864</v>
+        <v>549541</v>
       </c>
       <c r="C46" s="4">
-        <v>855374</v>
+        <v>549126</v>
       </c>
       <c r="D46" s="4">
-        <v>857682</v>
+        <v>548199</v>
       </c>
       <c r="E46" s="4">
-        <v>860559</v>
+        <v>546486</v>
       </c>
       <c r="F46" s="4">
-        <v>863299</v>
+        <v>544183</v>
       </c>
       <c r="G46" s="4">
-        <v>864208</v>
+        <v>542110</v>
       </c>
       <c r="H46" s="4">
-        <v>864644</v>
+        <v>540019</v>
       </c>
       <c r="I46" s="4">
-        <v>864488</v>
+        <v>537221</v>
       </c>
       <c r="J46" s="4">
-        <v>855756</v>
+        <v>533688</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="3" t="s">
-        <v>77</v>
+        <v>36</v>
       </c>
       <c r="B47" s="4">
-        <v>790581</v>
+        <v>852864</v>
       </c>
       <c r="C47" s="4">
-        <v>795740</v>
+        <v>855374</v>
       </c>
       <c r="D47" s="4">
-        <v>800785</v>
+        <v>857682</v>
       </c>
       <c r="E47" s="4">
-        <v>805124</v>
+        <v>860559</v>
       </c>
       <c r="F47" s="4">
-        <v>807606</v>
+        <v>863299</v>
       </c>
       <c r="G47" s="4">
-        <v>810232</v>
+        <v>864208</v>
       </c>
       <c r="H47" s="4">
-        <v>813622</v>
+        <v>864644</v>
       </c>
       <c r="I47" s="4">
-        <v>816709</v>
+        <v>864488</v>
       </c>
       <c r="J47" s="4">
-        <v>817527</v>
+        <v>855756</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B48" s="4">
         <v>458178</v>
@@ -2205,7 +2205,7 @@
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B49" s="4">
         <v>357376</v>
@@ -2269,7 +2269,7 @@
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B51" s="4">
         <v>514809</v>
@@ -2301,7 +2301,7 @@
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B52" s="4">
         <v>183248</v>
@@ -2333,7 +2333,7 @@
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" s="3" t="s">
-        <v>17</v>
+        <v>77</v>
       </c>
       <c r="B53" s="4">
         <v>844658</v>
@@ -2397,7 +2397,7 @@
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B55" s="4">
         <v>1306814</v>
@@ -2461,7 +2461,7 @@
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B57" s="4">
         <v>1126263</v>
@@ -2525,7 +2525,7 @@
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B59" s="4">
         <v>503956</v>
@@ -2557,7 +2557,7 @@
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B60" s="4">
         <v>194064</v>
@@ -2621,7 +2621,7 @@
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B62" s="4">
         <v>303674</v>
@@ -2653,7 +2653,7 @@
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B63" s="4">
         <v>1455287</v>
@@ -2717,7 +2717,7 @@
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B65" s="4">
         <v>1372792</v>
@@ -2749,7 +2749,7 @@
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B66" s="4">
         <v>602053</v>
@@ -2781,7 +2781,7 @@
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B67" s="4">
         <v>846181</v>
@@ -2813,7 +2813,7 @@
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B68" s="4">
         <v>1017676</v>
@@ -2845,7 +2845,7 @@
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B69" s="4">
         <v>1383338</v>
@@ -2877,7 +2877,7 @@
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B70" s="4">
         <v>528531</v>
@@ -2909,7 +2909,7 @@
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B71" s="4">
         <v>629314</v>
@@ -2973,7 +2973,7 @@
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A73" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B73" s="4">
         <v>1821489</v>
@@ -3005,7 +3005,7 @@
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A74" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B74" s="4">
         <v>1552703</v>
@@ -3037,7 +3037,7 @@
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A75" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B75" s="4">
         <v>328492</v>
@@ -3069,7 +3069,7 @@
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A76" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B76" s="4">
         <v>461167</v>
@@ -3101,7 +3101,7 @@
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A77" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B77" s="4">
         <v>497290</v>
@@ -3133,7 +3133,7 @@
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A78" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B78" s="6">
         <v>539560</v>
